--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Desktop\report_maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\report-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB84FA2-CFCB-4375-9F1A-DBCDCB0CB063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8F6747-F16A-4901-B417-E7AD24BFA759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>link1unq_raw</t>
   </si>
   <si>
-    <t>Link2_yahoo_raw</t>
-  </si>
-  <si>
     <t>link2unq_raw</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>link2unq_opn</t>
   </si>
   <si>
-    <t>Link3_yahoo_Open</t>
-  </si>
-  <si>
     <t>link3unq_opn</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>link2unq_clk</t>
   </si>
   <si>
-    <t>Link3_yahoo_Click</t>
-  </si>
-  <si>
     <t>link3unq_clk</t>
   </si>
   <si>
@@ -180,9 +171,6 @@
     <t>link2dup_raw</t>
   </si>
   <si>
-    <t>Dup_Link3_raw</t>
-  </si>
-  <si>
     <t>link3dup_raw</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>link2dup_opn</t>
   </si>
   <si>
-    <t>Dup_Link3_Open</t>
-  </si>
-  <si>
     <t>link3dup_opn</t>
   </si>
   <si>
@@ -264,9 +249,6 @@
     <t>link2dup_clk</t>
   </si>
   <si>
-    <t>Dup_Link3_Click</t>
-  </si>
-  <si>
     <t>link3dup_clk</t>
   </si>
   <si>
@@ -349,6 +331,24 @@
   </si>
   <si>
     <t>Marketbull_AOL</t>
+  </si>
+  <si>
+    <t>AVK_Dup_Click</t>
+  </si>
+  <si>
+    <t>AVK_Dup_Open</t>
+  </si>
+  <si>
+    <t>AVK_Dup_Raw</t>
+  </si>
+  <si>
+    <t>AVK_Unq_click</t>
+  </si>
+  <si>
+    <t>AVK_Unq_Open</t>
+  </si>
+  <si>
+    <t>AVK_Unique_Raw</t>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,67 +837,67 @@
   <sheetData>
     <row r="1" spans="1:21" s="20" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="J1" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="R1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,13 +1031,13 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
       <c r="I5">
-        <v>58469</v>
+        <v>61189</v>
       </c>
       <c r="R5" s="4" t="e">
         <f t="shared" si="0"/>
@@ -1070,10 +1070,10 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>60852</v>
@@ -1109,10 +1109,10 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
       </c>
       <c r="I7">
         <v>57288</v>
@@ -1141,7 +1141,7 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1205,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
         <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
       </c>
       <c r="I9">
         <v>59239</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
         <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
       </c>
       <c r="I10">
         <v>58974</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
       </c>
       <c r="I11">
         <v>59815</v>
@@ -1322,16 +1322,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
         <v>21</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
       </c>
       <c r="I12">
         <v>59702</v>
@@ -1361,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>59504</v>
+        <v>61204</v>
       </c>
       <c r="R13" s="4" t="e">
         <f t="shared" si="0"/>
@@ -1400,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I14">
         <v>59866</v>
@@ -1438,7 +1438,7 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I16">
         <v>59037</v>
@@ -1541,16 +1541,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I17">
         <v>58956</v>
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I18">
         <v>59796</v>
@@ -1619,16 +1619,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>59535</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I20">
-        <v>59400</v>
+        <v>61205</v>
       </c>
       <c r="R20" s="4" t="e">
         <f t="shared" si="0"/>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I21">
         <v>59856</v>
@@ -1735,7 +1735,7 @@
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1799,7 +1799,7 @@
       <c r="C23" s="12"/>
       <c r="D23" s="7"/>
       <c r="E23" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="8"/>
@@ -1859,7 +1859,7 @@
         <v>45528</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>1</v>
@@ -1868,10 +1868,10 @@
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I24">
         <v>59954</v>
@@ -1898,7 +1898,7 @@
         <v>45528</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>1</v>
@@ -1907,10 +1907,10 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I25">
         <v>59957</v>
@@ -1937,7 +1937,7 @@
         <v>45528</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>1</v>
@@ -1946,10 +1946,10 @@
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I26">
         <v>59953</v>
@@ -1976,7 +1976,7 @@
         <v>45528</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>1</v>
@@ -1985,10 +1985,10 @@
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I27">
         <v>59956</v>
@@ -2015,7 +2015,7 @@
         <v>45528</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>1</v>
@@ -2024,13 +2024,13 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I28">
-        <v>59959</v>
+        <v>61190</v>
       </c>
       <c r="R28" s="4" t="e">
         <f t="shared" si="0"/>
@@ -2054,7 +2054,7 @@
         <v>45528</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>1</v>
@@ -2063,10 +2063,10 @@
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <v>59955</v>
@@ -2093,7 +2093,7 @@
         <v>45528</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C30" s="14" t="s">
         <v>1</v>
@@ -2102,10 +2102,10 @@
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I30">
         <v>59958</v>
@@ -2134,7 +2134,7 @@
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
@@ -2195,19 +2195,19 @@
         <v>45528</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I32">
         <v>57133</v>
@@ -2234,19 +2234,19 @@
         <v>45528</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I33">
         <v>57205</v>
@@ -2273,19 +2273,19 @@
         <v>45528</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I34">
         <v>58067</v>
@@ -2312,19 +2312,19 @@
         <v>45528</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I35">
         <v>57336</v>
@@ -2351,22 +2351,22 @@
         <v>45528</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I36">
-        <v>57561</v>
+        <v>61206</v>
       </c>
       <c r="R36" s="4" t="e">
         <f t="shared" si="0"/>
@@ -2390,22 +2390,22 @@
         <v>45528</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I37">
-        <v>57128</v>
+        <v>60018</v>
       </c>
       <c r="R37" s="4" t="e">
         <f t="shared" si="0"/>
@@ -2429,19 +2429,19 @@
         <v>45528</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I38">
         <v>58448</v>
@@ -2470,7 +2470,7 @@
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
@@ -2531,19 +2531,19 @@
         <v>45528</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I40">
         <v>57134</v>
@@ -2570,19 +2570,19 @@
         <v>45528</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I41">
         <v>57204</v>
@@ -2609,19 +2609,19 @@
         <v>45528</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I42">
         <v>58013</v>
@@ -2648,19 +2648,19 @@
         <v>45528</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I43">
         <v>57271</v>
@@ -2687,22 +2687,22 @@
         <v>45528</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I44">
-        <v>57517</v>
+        <v>61207</v>
       </c>
       <c r="R44" s="4" t="e">
         <f t="shared" si="0"/>
@@ -2726,22 +2726,22 @@
         <v>45528</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I45">
-        <v>57108</v>
+        <v>60019</v>
       </c>
       <c r="R45" s="4" t="e">
         <f t="shared" si="0"/>
@@ -2765,19 +2765,19 @@
         <v>45528</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="R46" s="4" t="e">
         <f t="shared" si="0"/>
@@ -2803,7 +2803,7 @@
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -2867,7 +2867,7 @@
       <c r="C48" s="19"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="8"/>
@@ -2931,7 +2931,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>

--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\report-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8F6747-F16A-4901-B417-E7AD24BFA759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83F0D5-A06F-4E71-8893-02C0B7426EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,9 +339,6 @@
     <t>AVK_Dup_Open</t>
   </si>
   <si>
-    <t>AVK_Dup_Raw</t>
-  </si>
-  <si>
     <t>AVK_Unq_click</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>AVK_Unique_Raw</t>
+  </si>
+  <si>
+    <t>AVK_Dupe_Raw</t>
   </si>
 </sst>
 </file>
@@ -810,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1031,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -1367,7 +1367,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
@@ -1664,7 +1664,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H20" t="s">
         <v>35</v>
@@ -2024,7 +2024,7 @@
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
         <v>48</v>

--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\report-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B62C25-33F2-4DA6-ABB5-8D9567BBE52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B4F921-9F07-4433-B8F0-4C82E44D33EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>link2dup_clk</t>
   </si>
   <si>
-    <t>link3dup_clk</t>
-  </si>
-  <si>
     <t>Dup_Mkt_Click</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>avkdup_opn</t>
+  </si>
+  <si>
+    <t>avkdup_clk</t>
   </si>
 </sst>
 </file>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,67 +839,67 @@
   <sheetData>
     <row r="1" spans="1:21" s="18" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="I1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>95</v>
-      </c>
       <c r="M1" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="Q1" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -1033,10 +1033,10 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5">
         <v>61189</v>
@@ -1072,7 +1072,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -1369,10 +1369,10 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13">
         <v>61204</v>
@@ -1666,10 +1666,10 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I20">
         <v>61205</v>
@@ -2026,10 +2026,10 @@
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28">
         <v>61190</v>
@@ -2362,10 +2362,10 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36">
         <v>61206</v>
@@ -2698,10 +2698,10 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="I44">
         <v>61207</v>
@@ -2737,10 +2737,10 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" t="s">
         <v>70</v>
-      </c>
-      <c r="H45" t="s">
-        <v>71</v>
       </c>
       <c r="I45">
         <v>60019</v>
@@ -2776,10 +2776,10 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s">
         <v>72</v>
-      </c>
-      <c r="H46" t="s">
-        <v>73</v>
       </c>
       <c r="R46" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2805,7 +2805,7 @@
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
       <c r="D47" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
@@ -2869,7 +2869,7 @@
       <c r="C48" s="17"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="6"/>
@@ -2933,7 +2933,7 @@
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>

--- a/sheet1.xlsx
+++ b/sheet1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\report-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B4F921-9F07-4433-B8F0-4C82E44D33EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86850B9D-4278-4F69-892C-51B1B5AF66F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>57192</v>
+        <v>61779</v>
       </c>
       <c r="R2" s="20" t="e">
         <f t="shared" ref="R2:S49" si="0">N2/M2</f>
@@ -1000,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="I4">
-        <v>58470</v>
+        <v>61780</v>
       </c>
       <c r="R4" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>57288</v>
+        <v>61781</v>
       </c>
       <c r="R7" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1219,7 +1219,7 @@
         <v>14</v>
       </c>
       <c r="I9">
-        <v>59239</v>
+        <v>61789</v>
       </c>
       <c r="R9" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1297,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="I11">
-        <v>59815</v>
+        <v>61791</v>
       </c>
       <c r="R11" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1414,7 +1414,7 @@
         <v>22</v>
       </c>
       <c r="I14">
-        <v>59866</v>
+        <v>61790</v>
       </c>
       <c r="R14" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1516,7 +1516,7 @@
         <v>26</v>
       </c>
       <c r="I16">
-        <v>59037</v>
+        <v>61796</v>
       </c>
       <c r="R16" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1594,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="I18">
-        <v>59796</v>
+        <v>61798</v>
       </c>
       <c r="R18" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1711,7 +1711,7 @@
         <v>34</v>
       </c>
       <c r="I21">
-        <v>59856</v>
+        <v>61797</v>
       </c>
       <c r="R21" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1876,7 +1876,7 @@
         <v>38</v>
       </c>
       <c r="I24">
-        <v>59954</v>
+        <v>61778</v>
       </c>
       <c r="R24" s="20" t="e">
         <f t="shared" si="0"/>
@@ -1954,7 +1954,7 @@
         <v>42</v>
       </c>
       <c r="I26">
-        <v>59953</v>
+        <v>61777</v>
       </c>
       <c r="R26" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2071,7 +2071,7 @@
         <v>46</v>
       </c>
       <c r="I29">
-        <v>59955</v>
+        <v>61776</v>
       </c>
       <c r="R29" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2110,7 +2110,7 @@
         <v>47</v>
       </c>
       <c r="I30">
-        <v>59958</v>
+        <v>60745</v>
       </c>
       <c r="R30" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2212,7 +2212,7 @@
         <v>50</v>
       </c>
       <c r="I32">
-        <v>57133</v>
+        <v>61795</v>
       </c>
       <c r="R32" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2290,7 +2290,7 @@
         <v>54</v>
       </c>
       <c r="I34">
-        <v>58067</v>
+        <v>61793</v>
       </c>
       <c r="R34" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2407,7 +2407,7 @@
         <v>58</v>
       </c>
       <c r="I37">
-        <v>60018</v>
+        <v>61794</v>
       </c>
       <c r="R37" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2446,7 +2446,7 @@
         <v>59</v>
       </c>
       <c r="I38">
-        <v>58448</v>
+        <v>60764</v>
       </c>
       <c r="R38" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2548,7 +2548,7 @@
         <v>62</v>
       </c>
       <c r="I40">
-        <v>57134</v>
+        <v>61799</v>
       </c>
       <c r="R40" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2626,7 +2626,7 @@
         <v>66</v>
       </c>
       <c r="I42">
-        <v>58013</v>
+        <v>61801</v>
       </c>
       <c r="R42" s="20" t="e">
         <f t="shared" si="0"/>
@@ -2743,7 +2743,7 @@
         <v>70</v>
       </c>
       <c r="I45">
-        <v>60019</v>
+        <v>61800</v>
       </c>
       <c r="R45" s="20" t="e">
         <f t="shared" si="0"/>
